--- a/通知_結合テスト.xlsx
+++ b/通知_結合テスト.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/ketugou-test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/integration-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87334223-1B0F-4616-8043-CAF1F381987D}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C56D4C5-C504-403D-B9E7-7254178963B9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -632,16 +632,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.XAMPPのMySQLを停止の状態にする</t>
-    <rPh sb="14" eb="16">
-      <t>テイシ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.「通知」ボタンを押す</t>
     <rPh sb="3" eb="5">
       <t>ツウチ</t>
@@ -847,6 +837,43 @@
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チャットが送信された場合、「</t>
+    <rPh sb="5" eb="7">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.新たにメッセージを送信する</t>
+    <rPh sb="2" eb="3">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「イベント「○○」に新しいメッセージがあります」</t>
+    <rPh sb="10" eb="11">
+      <t>アタラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -886,7 +913,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -922,13 +949,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -946,6 +984,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1592,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I57"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1606,14 +1650,14 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -1645,8 +1689,8 @@
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
-        <v>46001</v>
+      <c r="C4" s="7">
+        <v>46020</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1692,7 +1736,7 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
@@ -1701,7 +1745,7 @@
         <v>24</v>
       </c>
       <c r="G8" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -1730,16 +1774,16 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -1777,7 +1821,7 @@
         <v>48</v>
       </c>
       <c r="G12" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -1828,7 +1872,7 @@
         <v>56</v>
       </c>
       <c r="G15" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -1879,7 +1923,7 @@
         <v>49</v>
       </c>
       <c r="G18" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -1930,7 +1974,7 @@
         <v>50</v>
       </c>
       <c r="G21" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -1981,7 +2025,7 @@
         <v>58</v>
       </c>
       <c r="G24" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>16</v>
@@ -2032,7 +2076,7 @@
         <v>51</v>
       </c>
       <c r="G27" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>16</v>
@@ -2083,7 +2127,7 @@
         <v>52</v>
       </c>
       <c r="G30" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>16</v>
@@ -2134,7 +2178,7 @@
         <v>60</v>
       </c>
       <c r="G33" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>16</v>
@@ -2185,7 +2229,7 @@
         <v>53</v>
       </c>
       <c r="G36" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>16</v>
@@ -2236,7 +2280,7 @@
         <v>54</v>
       </c>
       <c r="G39" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H39" s="3" t="s">
         <v>16</v>
@@ -2287,7 +2331,7 @@
         <v>54</v>
       </c>
       <c r="G42" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
@@ -2338,7 +2382,7 @@
         <v>54</v>
       </c>
       <c r="G45" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>16</v>
@@ -2389,7 +2433,7 @@
         <v>35</v>
       </c>
       <c r="G48" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>16</v>
@@ -2427,7 +2471,7 @@
         <v>18</v>
       </c>
       <c r="G50" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>16</v>
@@ -2454,16 +2498,16 @@
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="G52" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>16</v>
@@ -2476,10 +2520,10 @@
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2494,16 +2538,16 @@
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G54" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>16</v>
@@ -2530,16 +2574,16 @@
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G56" s="3">
-        <v>46002</v>
+        <v>46028</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>16</v>
@@ -2556,6 +2600,57 @@
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="2">
+        <v>20</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G58" s="3">
+        <v>46028</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
